--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E003BBE-9AD2-4635-9BF0-E8A716AF53AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7661A-F9F6-4CD5-9E28-71CBE2A3BDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="7995" windowWidth="28530" windowHeight="9360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
   <si>
     <t>givenName</t>
   </si>
@@ -143,18 +143,6 @@
     <t>primary production</t>
   </si>
   <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Morkeski</t>
-  </si>
-  <si>
-    <t>kmorkeski@whoi.edu</t>
-  </si>
-  <si>
-    <t>0000-0002-2903-5851</t>
-  </si>
-  <si>
     <t>attributeName</t>
   </si>
   <si>
@@ -210,9 +198,6 @@
   </si>
   <si>
     <t>gross primary production</t>
-  </si>
-  <si>
-    <t>metadata Provider</t>
   </si>
   <si>
     <t>PI</t>
@@ -414,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,13 +411,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,19 +456,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -821,202 +798,202 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1041,160 +1018,160 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1215,90 +1192,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1308,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1380,7 +1357,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1412,7 +1389,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1444,7 +1421,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -1459,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1482,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1499,22 +1476,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
+      <c r="E7" t="s">
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -1523,22 +1497,19 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
@@ -1554,10 +1525,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1572,29 +1543,6 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1604,10 +1552,9 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1643,7 +1590,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1675,7 +1622,7 @@
     </row>
     <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1683,20 +1630,20 @@
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1738,16 +1685,16 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="7">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="6">
         <v>1.1574070000000001E-8</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7661A-F9F6-4CD5-9E28-71CBE2A3BDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6346F12-1BDC-4E25-9050-5771FFDD2133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1476,17 +1476,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
@@ -1502,14 +1499,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>

--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6346F12-1BDC-4E25-9050-5771FFDD2133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E202C-F510-4970-BDC6-4B9CE769E579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="3480" windowWidth="18000" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
   <si>
     <t>givenName</t>
   </si>
@@ -74,9 +74,6 @@
     <t>OCE-1655686</t>
   </si>
   <si>
-    <t>technician</t>
-  </si>
-  <si>
     <t>NES-LTER Information Manager</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
     <t>0000-0003-4860-2476</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Cahill</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>sample bottle was filled from the ship's underway system</t>
   </si>
   <si>
-    <t>kcahill@whoi.edu</t>
-  </si>
-  <si>
     <t>inorganic matter</t>
   </si>
   <si>
@@ -390,6 +378,12 @@
   </si>
   <si>
     <t>OCE-2322676</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Sandwith</t>
   </si>
 </sst>
 </file>
@@ -487,9 +481,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,7 +521,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -633,7 +627,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -775,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,202 +792,202 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1018,160 +1012,160 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1192,90 +1186,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1282,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1331,16 +1325,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1349,27 +1343,27 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1386,25 +1380,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1418,25 +1412,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1450,19 +1444,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -1476,10 +1468,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1499,16 +1491,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1525,10 +1517,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1551,10 +1543,9 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1574,76 +1565,76 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1668,33 +1659,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="6">
         <v>1.1574070000000001E-8</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E202C-F510-4970-BDC6-4B9CE769E579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE728441-5BAC-45F0-82E9-08390E36D98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="3480" windowWidth="18000" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33585" yWindow="3075" windowWidth="19530" windowHeight="12000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>givenName</t>
   </si>
@@ -384,6 +384,21 @@
   </si>
   <si>
     <t>Sandwith</t>
+  </si>
+  <si>
+    <t>0000-0001-9952-9526</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>S. Alejandra</t>
+  </si>
+  <si>
+    <t>Casillo Cieza</t>
+  </si>
+  <si>
+    <t>zoe.sandwith@hakai.org</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1444,15 +1459,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="G6" t="s">
         <v>11</v>
       </c>
@@ -1468,10 +1482,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1517,14 +1531,23 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
@@ -1535,6 +1558,29 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE728441-5BAC-45F0-82E9-08390E36D98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D301F-A710-4A09-8138-B7198987F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33585" yWindow="3075" windowWidth="19530" windowHeight="12000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
   <si>
     <t>givenName</t>
   </si>
@@ -395,10 +395,13 @@
     <t>S. Alejandra</t>
   </si>
   <si>
-    <t>Casillo Cieza</t>
-  </si>
-  <si>
     <t>zoe.sandwith@hakai.org</t>
+  </si>
+  <si>
+    <t>Castillo Cieza</t>
+  </si>
+  <si>
+    <t>sc1@wellesley.edu</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1300,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1485,10 +1488,13 @@
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1513,7 +1519,7 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G8" t="s">
@@ -1543,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
         <v>118</v>
@@ -1589,9 +1595,11 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{DA77C00E-00E1-44CF-85F4-3752A7A8EC75}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{3EB17B56-5648-4422-9905-920358221FFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-2019-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D301F-A710-4A09-8138-B7198987F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067BCE67-DD50-4313-90B2-65AC8086D247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="129">
   <si>
     <t>givenName</t>
   </si>
@@ -362,9 +362,6 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>Underway thermosalinograph salinity in degrees Celsius. URI http://vocab.nerc.ac.uk/collection/P01/current/TEMPSZ01/</t>
-  </si>
-  <si>
     <t>celsius</t>
   </si>
   <si>
@@ -402,6 +399,24 @@
   </si>
   <si>
     <t>sc1@wellesley.edu</t>
+  </si>
+  <si>
+    <t>Underway thermosalinograph temperature in degrees Celsius. URI http://vocab.nerc.ac.uk/collection/P01/current/TEMPSZ01/</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Morkeski</t>
+  </si>
+  <si>
+    <t>kmorkeski@whoi.edu</t>
+  </si>
+  <si>
+    <t>0000-0002-2903-5851</t>
+  </si>
+  <si>
+    <t>metadata Provider</t>
   </si>
 </sst>
 </file>
@@ -1123,21 +1138,21 @@
         <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -1297,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1485,16 +1500,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1537,22 +1552,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
         <v>116</v>
       </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1572,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1588,6 +1603,35 @@
       </c>
       <c r="J10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
